--- a/PIcalc.xlsx
+++ b/PIcalc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>fpwm</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>Udc</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
   <si>
     <t>kb</t>
@@ -37,13 +43,22 @@
     <t>fсрез</t>
   </si>
   <si>
-    <t>крант</t>
+    <t>кратн_f</t>
   </si>
   <si>
     <t>Kp</t>
   </si>
   <si>
     <t>Ki</t>
+  </si>
+  <si>
+    <t>kp_anuch</t>
+  </si>
+  <si>
+    <t>ki_anuch</t>
+  </si>
+  <si>
+    <t>bw_anuch</t>
   </si>
   <si>
     <t>tau</t>
@@ -254,6 +269,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -1605,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -1613,89 +1629,133 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.00018000000000000001</v>
+        <v>4.8999999999999998e-05</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.187</v>
+      <c r="B3" s="1">
+        <v>0.0012999999999999999</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
+        <f>1/B1</f>
+        <v>5.0000000000000002e-05</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
         <f>B3/B2</f>
-        <v>1038.8888888888889</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>6000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <f>B6/(2*PI())</f>
-        <v>954.92965855137209</v>
-      </c>
-      <c r="G6" t="s">
+        <v>26.530612244897959</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="H6">
-        <f>B1/E6</f>
-        <v>15.707963267948966</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" t="s">
+      <c r="B11">
+        <v>20000</v>
+      </c>
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <f>B2*B6</f>
-        <v>1.0800000000000001</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" t="s">
+      <c r="E11">
+        <f>B11/(2*PI())</f>
+        <v>3183.098861837907</v>
+      </c>
+      <c r="G11" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <f>B5*B8</f>
-        <v>1122</v>
+      <c r="H11">
+        <f>B1/E11</f>
+        <v>6.2831853071795862</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <f>B2*B11</f>
+        <v>0.97999999999999998</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <f>B10*B13</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <f>B2/(B5)</f>
+        <v>0.97999999999999987</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <f>B17*B10</f>
+        <v>25.999999999999996</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <f>B17/B2</f>
+        <v>19999.999999999996</v>
       </c>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <f>'Лист1'!B6</f>
-        <v>6000</v>
+        <f>'Лист1'!B11</f>
+        <v>20000</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D50">
         <f>1/B50</f>
-        <v>0.00016666666666666666</v>
+        <v>5.0000000000000002e-05</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B51">
         <f>5*B50</f>
-        <v>30000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="52" ht="14.25">
@@ -1706,7 +1766,7 @@
     </row>
     <row r="53" ht="14.25">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B53">
         <f>B52/50</f>
@@ -1715,16 +1775,16 @@
     </row>
     <row r="54" ht="14.25">
       <c r="C54" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G54" t="s">
         <v>1</v>
@@ -1740,22 +1800,22 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" ref="D55:D99" si="1">COMPLEX(1,C55*$D$50)</f>
-        <v>1+0.00016666666666666666i</v>
+        <v>1+0.00005i</v>
       </c>
       <c r="E55" s="2" t="str">
         <f t="shared" ref="E55:E99" si="2">IMPOWER(D55,-1)</f>
-        <v>0.9999999722222228-0.00016666666267457336i</v>
+        <v>0.9999999975000002-0.00004999999754949213i</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" ref="F55:F99" si="3">IMABS(E55)</f>
-        <v>0.99999998611111129</v>
+        <v>0.99999999875000023</v>
       </c>
       <c r="G55">
         <f t="shared" ref="G55:G99" si="4">20*LOG(F55,10)</f>
-        <v>-1.2063735533164602e-07</v>
+        <v>-1.0857360059726908e-08</v>
       </c>
       <c r="J55" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="14.25">
@@ -1769,19 +1829,19 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.00020982090196569454i</v>
+        <v>1+0.00006294627058970837i</v>
       </c>
       <c r="E56" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9999999559751909-0.00020982089303243936i</v>
+        <v>0.9999999960377672-0.00006294626870979467i</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" si="3"/>
-        <v>0.99999997798759521</v>
+        <v>0.99999999801888362</v>
       </c>
       <c r="G56">
         <f t="shared" si="4"/>
-        <v>-1.9119732075986276e-07</v>
+        <v>-1.7207758271736772e-08</v>
       </c>
     </row>
     <row r="57" ht="14.25">
@@ -1795,19 +1855,19 @@
       </c>
       <c r="D57" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.0002641488654101856i</v>
+        <v>1+0.00007924465962305568i</v>
       </c>
       <c r="E57" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9999999302253816-0.00026414884734183425i</v>
+        <v>0.9999999937202841-0.00007924465792173298i</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" si="3"/>
-        <v>0.99999996511269029</v>
+        <v>0.99999999686014207</v>
       </c>
       <c r="G57">
         <f t="shared" si="4"/>
-        <v>-3.030273271768361e-07</v>
+        <v>-2.7272459495163429e-08</v>
       </c>
     </row>
     <row r="58" ht="14.25">
@@ -1821,19 +1881,19 @@
       </c>
       <c r="D58" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.00033254371916147996i</v>
+        <v>1+0.00009976311574844399i</v>
       </c>
       <c r="E58" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9999998894146871-0.00033254368243750844i</v>
+        <v>0.9999999900473209-0.00009976311443349953i</v>
       </c>
       <c r="F58" s="2">
         <f t="shared" si="3"/>
-        <v>0.9999999447073421</v>
+        <v>0.99999999502366044</v>
       </c>
       <c r="G58">
         <f t="shared" si="4"/>
-        <v>-4.8026593756379982e-07</v>
+        <v>-4.3223936350225429e-08</v>
       </c>
     </row>
     <row r="59" ht="14.25">
@@ -1847,19 +1907,19 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.00041864773858493i</v>
+        <v>1+0.000125594321575479i</v>
       </c>
       <c r="E59" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9999998247341016-0.0004186476652423973i</v>
+        <v>0.9999999842260666-0.00012559431986241675i</v>
       </c>
       <c r="F59" s="2">
         <f t="shared" si="3"/>
-        <v>0.99999991236704699</v>
+        <v>0.99999999211303314</v>
       </c>
       <c r="G59">
         <f t="shared" si="4"/>
-        <v>-7.611701918134845e-07</v>
+        <v>-6.8505323972467447e-08</v>
       </c>
     </row>
     <row r="60" ht="14.25">
@@ -1873,19 +1933,19 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.0005270462766947299i</v>
+        <v>1+0.000158113883008419i</v>
       </c>
       <c r="E60" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9999997222222994-0.0005270461303210675i</v>
+        <v>0.9999999750000005-0.00015811387935525664i</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" si="3"/>
-        <v>0.99999986111114014</v>
+        <v>0.9999999875000003</v>
       </c>
       <c r="G60">
         <f t="shared" si="4"/>
-        <v>-1.2063733924545512e-06</v>
+        <v>-1.0857361856589009e-07</v>
       </c>
     </row>
     <row r="61" ht="14.25">
@@ -1899,19 +1959,19 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.0006635119509224954i</v>
+        <v>1+0.00019905358527674862i</v>
       </c>
       <c r="E61" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9999995597520845-0.0006635116589701431i</v>
+        <v>0.9999999603776719-0.0001990535771265243i</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="3"/>
-        <v>0.99999977987601807</v>
+        <v>0.99999998018883574</v>
       </c>
       <c r="G61">
         <f t="shared" si="4"/>
-        <v>-1.9119728241800917e-06</v>
+        <v>-1.7207758810875339e-07</v>
       </c>
     </row>
     <row r="62" ht="14.25">
@@ -1925,19 +1985,19 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.0008353120560454536i</v>
+        <v>1+0.0002505936168136361i</v>
       </c>
       <c r="E62" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9999993022542557-0.000835311473291607i</v>
+        <v>0.9999999372028431-0.00025059360125265104i</v>
       </c>
       <c r="F62" s="2">
         <f t="shared" si="3"/>
-        <v>0.99999965112706701</v>
+        <v>0.99999996860142126</v>
       </c>
       <c r="G62">
         <f t="shared" si="4"/>
-        <v>-3.0302723222233509e-06</v>
+        <v>-2.7272459398342109e-07</v>
       </c>
     </row>
     <row r="63" ht="14.25">
@@ -1951,19 +2011,19 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.0010515955741336553i</v>
+        <v>1+0.0003154786722400966i</v>
       </c>
       <c r="E63" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9999988941479712-0.0010515944113378417i</v>
+        <v>0.9999999004732174-0.0003154786405665023i</v>
       </c>
       <c r="F63" s="2">
         <f t="shared" si="3"/>
-        <v>0.99999944707383281</v>
+        <v>0.99999995023660748</v>
       </c>
       <c r="G63">
         <f t="shared" si="4"/>
-        <v>-4.8026569939290079e-06</v>
+        <v>-4.3223934618044848e-07</v>
       </c>
     </row>
     <row r="64" ht="14.25">
@@ -1977,19 +2037,19 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.0013238803912071354i</v>
+        <v>1+0.00039716411736214066i</v>
       </c>
       <c r="E64" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9999982473437815-0.0013238780709248813i</v>
+        <v>0.999999842260689-0.00039716405434223404i</v>
       </c>
       <c r="F64" s="2">
         <f t="shared" si="3"/>
-        <v>0.99999912367150701</v>
+        <v>0.99999992113034153</v>
       </c>
       <c r="G64">
         <f t="shared" si="4"/>
-        <v>-7.611695912007508e-06</v>
+        <v>-6.8505317628433423e-07</v>
       </c>
     </row>
     <row r="65" ht="14.25">
@@ -2003,19 +2063,19 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.0016666666666666661i</v>
+        <v>1+0.0004999999999999998i</v>
       </c>
       <c r="E65" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9999972222299381-0.0016666620370845006i</v>
+        <v>0.9999997500000627-0.0004999998748365098i</v>
       </c>
       <c r="F65" s="2">
         <f t="shared" si="3"/>
-        <v>0.99999861111400457</v>
+        <v>0.99999987500002352</v>
       </c>
       <c r="G65">
         <f t="shared" si="4"/>
-        <v>-1.2063718853767283e-05</v>
+        <v>-1.0857360683309614e-06</v>
       </c>
     </row>
     <row r="66" ht="14.25">
@@ -2029,19 +2089,19 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.0020982090196569447i</v>
+        <v>1+0.0006294627058970834i</v>
       </c>
       <c r="E66" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9999955975382915-0.002098199782403846i</v>
+        <v>0.9999996037768588-0.0006294624565823838i</v>
       </c>
       <c r="F66" s="2">
         <f t="shared" si="3"/>
-        <v>0.99999779876672334</v>
+        <v>0.99999980188840976</v>
       </c>
       <c r="G66">
         <f t="shared" si="4"/>
-        <v>-1.911969035212059e-05</v>
+        <v>-1.720775579332482e-06</v>
       </c>
     </row>
     <row r="67" ht="14.25">
@@ -2055,19 +2115,19 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.0026414886541018556i</v>
+        <v>1+0.0007924465962305567i</v>
       </c>
       <c r="E67" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9999930225863749-0.002641470223347621i</v>
+        <v>0.9999993720287863-0.000792446098702499i</v>
       </c>
       <c r="F67" s="2">
         <f t="shared" si="3"/>
-        <v>0.99999651128710199</v>
+        <v>0.99999968601434408</v>
       </c>
       <c r="G67">
         <f t="shared" si="4"/>
-        <v>-3.0302628069661979e-05</v>
+        <v>-2.7272451834126232e-06</v>
       </c>
     </row>
     <row r="68" ht="14.25">
@@ -2081,19 +2141,19 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.0033254371916147996i</v>
+        <v>1+0.00099763115748444i</v>
       </c>
       <c r="E68" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9999889415897741-0.003325400417614249i</v>
+        <v>0.9999990047330646-0.0009976301643981795i</v>
       </c>
       <c r="F68" s="2">
         <f t="shared" si="3"/>
-        <v>0.99999447077960091</v>
+        <v>0.99999950236640844</v>
       </c>
       <c r="G68">
         <f t="shared" si="4"/>
-        <v>-4.8026330945257605e-05</v>
+        <v>-4.322391531935665e-06</v>
       </c>
     </row>
     <row r="69" ht="14.25">
@@ -2107,19 +2167,19 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.004186477385849301i</v>
+        <v>1+0.0012559432157547906i</v>
       </c>
       <c r="E69" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9999824737142736-0.0041864040124776816i</v>
+        <v>0.9999984226091271-0.001255941234602552i</v>
       </c>
       <c r="F69" s="2">
         <f t="shared" si="3"/>
-        <v>0.99999123681874003</v>
+        <v>0.99999921130425273</v>
       </c>
       <c r="G69">
         <f t="shared" si="4"/>
-        <v>-7.6116358813707426e-05</v>
+        <v>-6.8505269202627879e-06</v>
       </c>
     </row>
     <row r="70" ht="14.25">
@@ -2133,19 +2193,19 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.005270462766947302i</v>
+        <v>1+0.0015811388300841906i</v>
       </c>
       <c r="E70" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9999722229938056-0.005270316369276179i</v>
+        <v>0.99999750000625-0.001581134877257742i</v>
       </c>
       <c r="F70" s="2">
         <f t="shared" si="3"/>
-        <v>0.99998611140045612</v>
+        <v>0.99999875000234373</v>
       </c>
       <c r="G70">
         <f t="shared" si="4"/>
-        <v>-0.00012063568059765962</v>
+        <v>-1.0857348476048928e-05</v>
       </c>
     </row>
     <row r="71" ht="14.25">
@@ -2159,19 +2219,19 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.006635119509224959i</v>
+        <v>1+0.001990535852767488i</v>
       </c>
       <c r="E71" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9999559771271971-0.006634827412192065i</v>
+        <v>0.9999960377827181-0.001990527965822909i</v>
       </c>
       <c r="F71" s="2">
         <f t="shared" si="3"/>
-        <v>0.99997798832134166</v>
+        <v>0.99999801888939666</v>
       </c>
       <c r="G71">
         <f t="shared" si="4"/>
-        <v>-0.00019119311582332772</v>
+        <v>-1.7207725106655813e-05</v>
       </c>
     </row>
     <row r="72" ht="14.25">
@@ -2185,19 +2245,19 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.008353120560454546i</v>
+        <v>1+0.0025059361681363636i</v>
       </c>
       <c r="E72" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9999302302450608-0.00835253776528749i</v>
+        <v>0.9999937203233561-0.0025059204316219895i</v>
       </c>
       <c r="F72" s="2">
         <f t="shared" si="3"/>
-        <v>0.99996511451403181</v>
+        <v>0.99999686015674882</v>
       </c>
       <c r="G72">
         <f t="shared" si="4"/>
-        <v>-0.00030301676656431542</v>
+        <v>-2.7272374776055258e-05</v>
       </c>
     </row>
     <row r="73" ht="14.25">
@@ -2211,19 +2271,19 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.010515955741336565i</v>
+        <v>1+0.0031547867224009703i</v>
       </c>
       <c r="E73" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9998894269026082-0.010514792959539809i</v>
+        <v>0.999990047419791-0.003154755324136573i</v>
       </c>
       <c r="F73" s="2">
         <f t="shared" si="3"/>
-        <v>0.99994471192291834</v>
+        <v>0.99999502369751392</v>
       </c>
       <c r="G73">
         <f t="shared" si="4"/>
-        <v>-0.00048023941171128218</v>
+        <v>-4.3223721746979703e-05</v>
       </c>
     </row>
     <row r="74" ht="14.25">
@@ -2237,19 +2297,19 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.013238803912071375i</v>
+        <v>1+0.003971641173621413i</v>
       </c>
       <c r="E74" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9998247647837408-0.013236484007399983i</v>
+        <v>0.9999842263152011-0.003971578526200091i</v>
       </c>
       <c r="F74" s="2">
         <f t="shared" si="3"/>
-        <v>0.99991237855311133</v>
+        <v>0.99999211312649916</v>
       </c>
       <c r="G74">
         <f t="shared" si="4"/>
-        <v>-0.00076110356258727045</v>
+        <v>-6.8504782962307246e-05</v>
       </c>
     </row>
     <row r="75" ht="14.25">
@@ -2263,19 +2323,19 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.016666666666666684i</v>
+        <v>1+0.005000000000000005i</v>
       </c>
       <c r="E75" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9997222993612882-0.016662038322697695i</v>
+        <v>0.9999750006249843-0.004999875003126774i</v>
       </c>
       <c r="F75" s="2">
         <f t="shared" si="3"/>
-        <v>0.99986114003959981</v>
+        <v>0.99998750023437022</v>
       </c>
       <c r="G75">
         <f t="shared" si="4"/>
-        <v>-0.0012062060399819637</v>
+        <v>-0.0001085722633272922</v>
       </c>
     </row>
     <row r="76" ht="14.25">
@@ -2289,19 +2349,19 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.020982090196569478i</v>
+        <v>1+0.006294627058970844i</v>
       </c>
       <c r="E76" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.99955994562409-0.020972856935960744i</v>
+        <v>0.9999603792400551-0.006294377661080477i</v>
       </c>
       <c r="F76" s="2">
         <f t="shared" si="3"/>
-        <v>0.99977994860073582</v>
+        <v>0.99998018942379796</v>
       </c>
       <c r="G76">
         <f t="shared" si="4"/>
-        <v>-0.0019115524963255915</v>
+        <v>-0.000172074183007378</v>
       </c>
     </row>
     <row r="77" ht="14.25">
@@ -2315,19 +2375,19 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.026414886541018593i</v>
+        <v>1+0.00792446596230558i</v>
       </c>
       <c r="E77" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9993027402793669-0.026396468504612424i</v>
+        <v>0.999937206782448-0.007923968359593137i</v>
       </c>
       <c r="F77" s="2">
         <f t="shared" si="3"/>
-        <v>0.99965130934709756</v>
+        <v>0.99996860289833489</v>
       </c>
       <c r="G77">
         <f t="shared" si="4"/>
-        <v>-0.0030292166894057056</v>
+        <v>-0.00027271604128728815</v>
       </c>
     </row>
     <row r="78" ht="14.25">
@@ -2341,19 +2401,19 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.033254371916148044i</v>
+        <v>1+0.009976311574844413i</v>
       </c>
       <c r="E78" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9988953683090096-0.033217638083066915i</v>
+        <v>0.9999004831119583-0.009975318763359905i</v>
       </c>
       <c r="F78" s="2">
         <f t="shared" si="3"/>
-        <v>0.99944753154380728</v>
+        <v>0.99995024031796609</v>
       </c>
       <c r="G78">
         <f t="shared" si="4"/>
-        <v>-0.0048000060871009366</v>
+        <v>-0.00043221786017259617</v>
       </c>
     </row>
     <row r="79" ht="14.25">
@@ -2367,19 +2427,19 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.041864773858493076i</v>
+        <v>1+0.012559432157547925i</v>
       </c>
       <c r="E79" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.99825040714994-0.04179152754948134i</v>
+        <v>0.9998422855416539-0.012557451353509205i</v>
       </c>
       <c r="F79" s="2">
         <f t="shared" si="3"/>
-        <v>0.99912482060548369</v>
+        <v>0.99992113966135043</v>
       </c>
       <c r="G79">
         <f t="shared" si="4"/>
-        <v>-0.0076050400070605019</v>
+        <v>-0.00068499920832035504</v>
       </c>
     </row>
     <row r="80" ht="14.25">
@@ -2393,19 +2453,19 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.0527046276694731i</v>
+        <v>1+0.01581138830084193i</v>
       </c>
       <c r="E80" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9972299168975072-0.05255863147094013i</v>
+        <v>0.9997500624843787-0.01580743644173892i</v>
       </c>
       <c r="F80" s="2">
         <f t="shared" si="3"/>
-        <v>0.9986139979479095</v>
+        <v>0.99987502343261825</v>
       </c>
       <c r="G80">
         <f t="shared" si="4"/>
-        <v>-0.012047011383704479</v>
+        <v>-0.001085600510347859</v>
       </c>
     </row>
     <row r="81" ht="14.25">
@@ -2419,19 +2479,19 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.06635119509224968i</v>
+        <v>1+0.01990535852767491i</v>
       </c>
       <c r="E81" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9956168157954057-0.0660603655819648i</v>
+        <v>0.9996039336326074-0.019897474684625167i</v>
       </c>
       <c r="F81" s="2">
         <f t="shared" si="3"/>
-        <v>0.99780600108207684</v>
+        <v>0.99980194720384874</v>
       </c>
       <c r="G81">
         <f t="shared" si="4"/>
-        <v>-0.019077768429945796</v>
+        <v>-0.0017204351039957252</v>
       </c>
     </row>
     <row r="82" ht="14.25">
@@ -2445,19 +2505,19 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.08353120560454558i</v>
+        <v>1+0.025059361681363676i</v>
       </c>
       <c r="E82" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9930708853267236-0.0829524083021161i</v>
+        <v>0.9993724224929789-0.02504363498962911i</v>
       </c>
       <c r="F82" s="2">
         <f t="shared" si="3"/>
-        <v>0.99652942020129209</v>
+        <v>0.99968616199934413</v>
       </c>
       <c r="G82">
         <f t="shared" si="4"/>
-        <v>-0.030197504900181964</v>
+        <v>-0.0027263900827155297</v>
       </c>
     </row>
     <row r="83" ht="14.25">
@@ -2471,19 +2531,19 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.10515955741336581i</v>
+        <v>1+0.03154786722400975i</v>
       </c>
       <c r="E83" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9890624210570056-0.1040093664525469i</v>
+        <v>0.9990057216469711-0.03151649986254232i</v>
       </c>
       <c r="F83" s="2">
         <f t="shared" si="3"/>
-        <v>0.99451617435665929</v>
+        <v>0.9995027371883336</v>
       </c>
       <c r="G83">
         <f t="shared" si="4"/>
-        <v>-0.047762986301740744</v>
+        <v>-0.0043202441406669781</v>
       </c>
     </row>
     <row r="84" ht="14.25">
@@ -2497,19 +2557,19 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.13238803912071395i</v>
+        <v>1+0.039716411736214194i</v>
       </c>
       <c r="E84" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9827752974472759-0.13010769452532137i</v>
+        <v>0.9984250908899742-0.039653861997552206i</v>
       </c>
       <c r="F84" s="2">
         <f t="shared" si="3"/>
-        <v>0.99135023954567947</v>
+        <v>0.99921223515826418</v>
       </c>
       <c r="G84">
         <f t="shared" si="4"/>
-        <v>-0.075457682655880931</v>
+        <v>-0.006845135008545322</v>
       </c>
     </row>
     <row r="85" ht="14.25">
@@ -2523,19 +2583,19 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.16666666666666718i</v>
+        <v>1+0.050000000000000155i</v>
       </c>
       <c r="E85" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9729729729729728-0.1621621621621627i</v>
+        <v>0.997506234413965-0.0498753117206988i</v>
       </c>
       <c r="F85" s="2">
         <f t="shared" si="3"/>
-        <v>0.98639392383214353</v>
+        <v>0.99875233887784454</v>
       </c>
       <c r="G85">
         <f t="shared" si="4"/>
-        <v>-0.11899223299707913</v>
+        <v>-0.010843812922200361</v>
       </c>
     </row>
     <row r="86" ht="14.25">
@@ -2549,19 +2609,19 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.20982090196569522i</v>
+        <v>1+0.06294627058970857i</v>
       </c>
       <c r="E86" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9578316430395225-0.20097309927383625i</v>
+        <v>0.9960534043502937-0.06269784711203492i</v>
       </c>
       <c r="F86" s="2">
         <f t="shared" si="3"/>
-        <v>0.97868873654473154</v>
+        <v>0.99802475137157487</v>
       </c>
       <c r="G86">
         <f t="shared" si="4"/>
-        <v>-0.18710819652509841</v>
+        <v>-0.017173758404900222</v>
       </c>
     </row>
     <row r="87" ht="14.25">
@@ -2575,19 +2635,19 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.2641488654101865i</v>
+        <v>1+0.07924465962305595i</v>
       </c>
       <c r="E87" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.9347763336398285-0.24692010794325467i</v>
+        <v>0.9937594726610961-0.07875013115821636i</v>
       </c>
       <c r="F87" s="2">
         <f t="shared" si="3"/>
-        <v>0.96683831825172761</v>
+        <v>0.99687485305884638</v>
       </c>
       <c r="G87">
         <f t="shared" si="4"/>
-        <v>-0.29292291465666076</v>
+        <v>-0.027187185570221317</v>
       </c>
     </row>
     <row r="88" ht="14.25">
@@ -2601,19 +2661,19 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.3325437191614812i</v>
+        <v>1+0.09976311574844436i</v>
       </c>
       <c r="E88" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.900426088253561-0.29943104021786293i</v>
+        <v>0.990145400405203-0.09877999018841392i</v>
       </c>
       <c r="F88" s="2">
         <f t="shared" si="3"/>
-        <v>0.94890783970497428</v>
+        <v>0.99506050087680742</v>
       </c>
       <c r="G88">
         <f t="shared" si="4"/>
-        <v>-0.45551930574639138</v>
+        <v>-0.043010256479465332</v>
       </c>
     </row>
     <row r="89" ht="14.25">
@@ -2627,19 +2687,19 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.4186477385849316i</v>
+        <v>1+0.1255943215754795i</v>
       </c>
       <c r="E89" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.8508712584154601-0.3562153281625476i</v>
+        <v>0.9844710194955348-0.12364396980426152i</v>
       </c>
       <c r="F89" s="2">
         <f t="shared" si="3"/>
-        <v>0.92242683092777633</v>
+        <v>0.99220512974663411</v>
       </c>
       <c r="G89">
         <f t="shared" si="4"/>
-        <v>-0.70136146130952426</v>
+        <v>-0.067970639427469323</v>
       </c>
     </row>
     <row r="90" ht="14.25">
@@ -2653,19 +2713,19 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.527046276694732i</v>
+        <v>1+0.1581138830084196i</v>
       </c>
       <c r="E90" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.7826086956521726-0.4124709991523982i</v>
+        <v>0.9756097560975607-0.15425744683748266i</v>
       </c>
       <c r="F90" s="2">
         <f t="shared" si="3"/>
-        <v>0.88465173692938226</v>
+        <v>0.98772959664958948</v>
       </c>
       <c r="G90">
         <f t="shared" si="4"/>
-        <v>-1.0645533091428732</v>
+        <v>-0.10723865391773213</v>
       </c>
     </row>
     <row r="91" ht="14.25">
@@ -2679,19 +2739,19 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.6635119509224983i</v>
+        <v>1+0.1990535852767495i</v>
       </c>
       <c r="E91" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.694324813717364-0.4606928117235082i</v>
+        <v>0.9618877657055412-0.1914672083975297i</v>
       </c>
       <c r="F91" s="2">
         <f t="shared" si="3"/>
-        <v>0.83326155180553252</v>
+        <v>0.98075877039440285</v>
       </c>
       <c r="G91">
         <f t="shared" si="4"/>
-        <v>-1.5843731368920444</v>
+        <v>-0.16875599041537934</v>
       </c>
     </row>
     <row r="92" ht="14.25">
@@ -2705,19 +2765,19 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="1"/>
-        <v>1+0.8353120560454574i</v>
+        <v>1+0.2505936168136373i</v>
       </c>
       <c r="E92" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.5890161802484312-0.49201231656735867i</v>
+        <v>0.9409133152546296-0.2357868707777675i</v>
       </c>
       <c r="F92" s="2">
         <f t="shared" si="3"/>
-        <v>0.76747389548337808</v>
+        <v>0.97000686350903176</v>
       </c>
       <c r="G92">
         <f t="shared" si="4"/>
-        <v>-2.2987277499881857</v>
+        <v>-0.26450385542658039</v>
       </c>
     </row>
     <row r="93" ht="14.25">
@@ -2731,19 +2791,19 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" si="1"/>
-        <v>1+1.0515955741336602i</v>
+        <v>1+0.3154786722400981i</v>
       </c>
       <c r="E93" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.4748668974297668-0.49936792763972554i</v>
+        <v>0.9094821578657893-0.2869222235895588i</v>
       </c>
       <c r="F93" s="2">
         <f t="shared" si="3"/>
-        <v>0.68910586808542496</v>
+        <v>0.95366773976358732</v>
       </c>
       <c r="G93">
         <f t="shared" si="4"/>
-        <v>-3.2342810366425647</v>
+        <v>-0.41205816464642331</v>
       </c>
     </row>
     <row r="94" ht="14.25">
@@ -2757,19 +2817,19 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" si="1"/>
-        <v>1+1.3238803912071422i</v>
+        <v>1+0.3971641173621427i</v>
       </c>
       <c r="E94" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.3632850616681546-0.4809459695609474i</v>
+        <v>0.863752287584281-0.3430514149179428i</v>
       </c>
       <c r="F94" s="2">
         <f t="shared" si="3"/>
-        <v>0.60273133456636774</v>
+        <v>0.92938274547372646</v>
       </c>
       <c r="G94">
         <f t="shared" si="4"/>
-        <v>-4.3975246001912858</v>
+        <v>-0.63610789419291092</v>
       </c>
     </row>
     <row r="95" ht="14.25">
@@ -2783,19 +2843,19 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" si="1"/>
-        <v>1+1.6666666666666732i</v>
+        <v>1+0.500000000000002i</v>
       </c>
       <c r="E95" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.26470588235293957-0.4411764705882345i</v>
+        <v>0.7999999999999986-0.4000000000000011i</v>
       </c>
       <c r="F95" s="2">
         <f t="shared" si="3"/>
-        <v>0.51449575542752501</v>
+        <v>0.89442719099991519</v>
       </c>
       <c r="G95">
         <f t="shared" si="4"/>
-        <v>-5.7723640760293273</v>
+        <v>-0.96910013008057072</v>
       </c>
     </row>
     <row r="96" ht="14.25">
@@ -2809,19 +2869,19 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" si="1"/>
-        <v>1+2.0982090196569523i</v>
+        <v>1+0.6294627058970856i</v>
       </c>
       <c r="E96" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.18510013886389604-0.3883787809039809i</v>
+        <v>0.7162178151230317-0.4508324039190422i</v>
       </c>
       <c r="F96" s="2">
         <f t="shared" si="3"/>
-        <v>0.4302326566683381</v>
+        <v>0.84629652907419617</v>
       </c>
       <c r="G96">
         <f t="shared" si="4"/>
-        <v>-7.3259325543509588</v>
+        <v>-1.4495488059666326</v>
       </c>
     </row>
     <row r="97" ht="14.25">
@@ -2835,19 +2895,19 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" si="1"/>
-        <v>1+2.6414886541018623i</v>
+        <v>1+0.7924465962305587i</v>
       </c>
       <c r="E97" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.12535314629790842-0.3311189137018959i</v>
+        <v>0.6142613268936749-0.48676929769295924i</v>
       </c>
       <c r="F97" s="2">
         <f t="shared" si="3"/>
-        <v>0.35405246263500056</v>
+        <v>0.78374825479465982</v>
       </c>
       <c r="G97">
         <f t="shared" si="4"/>
-        <v>-9.0186476100634927</v>
+        <v>-2.1164682644403103</v>
       </c>
     </row>
     <row r="98" ht="14.25">
@@ -2861,19 +2921,19 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" si="1"/>
-        <v>1+3.3254371916148044i</v>
+        <v>1+0.9976311574844414i</v>
       </c>
       <c r="E98" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.08292883057909185-0.27577461746483506i</v>
+        <v>0.5011858241075496-0.4999985938192086i</v>
       </c>
       <c r="F98" s="2">
         <f t="shared" si="3"/>
-        <v>0.28797366299557997</v>
+        <v>0.70794478888367396</v>
       </c>
       <c r="G98">
         <f t="shared" si="4"/>
-        <v>-10.81294458778155</v>
+        <v>-3.0000122139483483</v>
       </c>
     </row>
     <row r="99" ht="14.25">
@@ -2887,19 +2947,19 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" si="1"/>
-        <v>1+4.186477385849304i</v>
+        <v>1+1.2559432157547912i</v>
       </c>
       <c r="E99" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0.05397646535860138-0.22597125159186313i</v>
+        <v>0.38798889414932947-0.4872920193950542i</v>
       </c>
       <c r="F99" s="2">
         <f t="shared" si="3"/>
-        <v>0.2323283567681772</v>
+        <v>0.62288754534773738</v>
       </c>
       <c r="G99">
         <f t="shared" si="4"/>
-        <v>-12.677955585626794</v>
+        <v>-4.1118070553644346</v>
       </c>
     </row>
     <row r="100" ht="14.25">
@@ -2913,19 +2973,19 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" ref="D100:D105" si="7">COMPLEX(1,C100*$D$50)</f>
-        <v>1+5.270462766947299i</v>
+        <v>1+1.5811388300841898i</v>
       </c>
       <c r="E100" s="2" t="str">
         <f t="shared" ref="E100:E105" si="8">IMPOWER(D100,-1)</f>
-        <v>0.03474903474903474-0.18314349383214554i</v>
+        <v>0.2857142857142857-0.45175395145262554i</v>
       </c>
       <c r="F100" s="2">
         <f t="shared" ref="F100:F105" si="9">IMABS(E100)</f>
-        <v>0.18641092980036009</v>
+        <v>0.53452248382484879</v>
       </c>
       <c r="G100">
         <f t="shared" ref="G100:G105" si="10">20*LOG(F100,10)</f>
-        <v>-14.590572546419265</v>
+        <v>-5.4406804435027558</v>
       </c>
     </row>
     <row r="101" ht="14.25">
@@ -2939,19 +2999,19 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" si="7"/>
-        <v>1+6.635119509224948i</v>
+        <v>1+1.9905358527674846i</v>
       </c>
       <c r="E101" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0.022209976676710454-0.14736584954707257i</v>
+        <v>0.20152217838181596-0.40113712119680905i</v>
       </c>
       <c r="F101" s="2">
         <f t="shared" si="9"/>
-        <v>0.14903012003185956</v>
+        <v>0.44891221678833371</v>
       </c>
       <c r="G101">
         <f t="shared" si="10"/>
-        <v>-16.53451897515518</v>
+        <v>-6.956771509183949</v>
       </c>
     </row>
     <row r="102" ht="14.25">
@@ -2965,19 +3025,19 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" si="7"/>
-        <v>1+8.353120560454524i</v>
+        <v>1+2.5059361681363574i</v>
       </c>
       <c r="E102" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0.014129358182841277-0.11802423234311775i</v>
+        <v>0.13736799473756717-0.3442354263572343i</v>
       </c>
       <c r="F102" s="2">
         <f t="shared" si="9"/>
-        <v>0.11886697683899122</v>
+        <v>0.37063188575400141</v>
       </c>
       <c r="G102">
         <f t="shared" si="10"/>
-        <v>-18.498775652555508</v>
+        <v>-8.6211444142480804</v>
       </c>
     </row>
     <row r="103" ht="14.25">
@@ -2991,19 +3051,19 @@
       </c>
       <c r="D103" t="str">
         <f t="shared" si="7"/>
-        <v>1+10.515955741336528i</v>
+        <v>1+3.1547867224009587i</v>
       </c>
       <c r="E103" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0.008961751902610327-0.09424138637268868i</v>
+        <v>0.09130186102515701-0.28803789889266296i</v>
       </c>
       <c r="F103" s="2">
         <f t="shared" si="9"/>
-        <v>0.094666530001951243</v>
+        <v>0.30216197812623125</v>
       </c>
       <c r="G103">
         <f t="shared" si="10"/>
-        <v>-20.476070832771072</v>
+        <v>-10.395203700591386</v>
       </c>
     </row>
     <row r="104" ht="14.25">
@@ -3017,19 +3077,19 @@
       </c>
       <c r="D104" t="str">
         <f t="shared" si="7"/>
-        <v>1+13.238803912071313i</v>
+        <v>1+3.9716411736213946i</v>
       </c>
       <c r="E104" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0.005673246131835436-0.07510699308428645i</v>
+        <v>0.05961630844206528-0.23677458522781916i</v>
       </c>
       <c r="F104" s="2">
         <f t="shared" si="9"/>
-        <v>0.075320954135190313</v>
+        <v>0.24416451102087966</v>
       </c>
       <c r="G104">
         <f t="shared" si="10"/>
-        <v>-22.461683743095886</v>
+        <v>-12.24634919831013</v>
       </c>
     </row>
     <row r="105" ht="14.25">
@@ -3043,19 +3103,19 @@
       </c>
       <c r="D105" t="str">
         <f t="shared" si="7"/>
-        <v>1+16.666666666666597i</v>
+        <v>1+4.99999999999998i</v>
       </c>
       <c r="E105" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>0.0035870864886409235-0.0597847748106818i</v>
+        <v>0.03846153846153873-0.19230769230769298i</v>
       </c>
       <c r="F105" s="2">
         <f t="shared" si="9"/>
-        <v>0.059892290727946967</v>
+        <v>0.19611613513818479</v>
       </c>
       <c r="G105">
         <f t="shared" si="10"/>
-        <v>-24.452581518752822</v>
+        <v>-14.149733479708145</v>
       </c>
     </row>
     <row r="106" ht="14.25">
